--- a/2020-07-06/pgs-elena-forlalit-Glee_annovatest.xlsx
+++ b/2020-07-06/pgs-elena-forlalit-Glee_annovatest.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{05BFCB8B-BE52-45FB-AF61-74B7F41048A0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{9C1F68B6-1059-4E02-895F-DC5F87A668D3}"/>
+    <workbookView activeTab="0" windowHeight="17640" windowWidth="29040" xWindow="-120" xr2:uid="{9C1F68B6-1059-4E02-895F-DC5F87A668D3}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -156,24 +156,32 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" count="1" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="9">
+    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);(&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red](&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);(&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red](&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* (#,##0);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* (#,##0);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* (#,##0.00);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* (#,##0.00);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -187,15 +195,25 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -521,19 +539,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9877F321-AB9C-48C7-B9F2-06CBEA4AEF8E}">
-  <dimension ref="A1:K31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9877F321-AB9C-48C7-B9F2-06CBEA4AEF8E}">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView workbookViewId="0" tabSelected="1">
+      <selection pane="topLeft" activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="9" max="11" width="12.5703125" style="3"/>
+    <col min="9" max="11" width="12.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -570,11 +587,11 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.0672360000000001E-3</v>
+        <v>0.001067236</v>
       </c>
       <c r="I2" s="3">
         <f>AVERAGE(B2:C2)</f>
-        <v>1.0672360000000001E-3</v>
+        <v>0.001067236</v>
       </c>
       <c r="J2" s="3" t="e">
         <f>AVERAGE(D2:E2)</f>
@@ -590,28 +607,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.4402303999999999E-2</v>
+        <v>0.014402304</v>
       </c>
       <c r="C3">
-        <v>2.0277481E-2</v>
+        <v>0.020277481</v>
       </c>
       <c r="F3">
-        <v>1.4858840999999999E-2</v>
+        <v>0.014858841</v>
       </c>
       <c r="G3">
-        <v>1.9692423000000001E-2</v>
+        <v>0.019692423</v>
       </c>
       <c r="I3" s="3">
-        <f t="shared" ref="I3:I31" si="0">AVERAGE(B3:C3)</f>
-        <v>1.7339892499999999E-2</v>
+        <f>AVERAGE(B3:C3)</f>
+        <v>0.0173398925</v>
       </c>
       <c r="J3" s="3" t="e">
-        <f t="shared" ref="J3:J31" si="1">AVERAGE(D3:E3)</f>
+        <f>AVERAGE(D3:E3)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K3" s="3">
-        <f t="shared" ref="K3:K31" si="2">AVERAGE(F3:G3)</f>
-        <v>1.7275631999999999E-2</v>
+        <f>AVERAGE(F3:G3)</f>
+        <v>0.017275632</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -619,28 +636,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.1609858000000003E-2</v>
+        <v>0.061609858</v>
       </c>
       <c r="C4">
-        <v>4.1622198999999999E-2</v>
+        <v>0.041622199</v>
       </c>
       <c r="F4">
-        <v>4.5402013999999997E-2</v>
+        <v>0.045402014</v>
       </c>
       <c r="G4">
-        <v>3.6571643000000001E-2</v>
+        <v>0.036571643</v>
       </c>
       <c r="I4" s="3">
-        <f t="shared" si="0"/>
-        <v>5.1616028500000001E-2</v>
+        <f>AVERAGE(B4:C4)</f>
+        <v>0.0516160285</v>
       </c>
       <c r="J4" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D4:E4)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K4" s="3">
-        <f t="shared" si="2"/>
-        <v>4.0986828500000003E-2</v>
+        <f>AVERAGE(F4:G4)</f>
+        <v>0.0409868285</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -648,34 +665,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.5604096999999999E-2</v>
+        <v>0.025604097</v>
       </c>
       <c r="C5">
-        <v>3.0949839999999999E-2</v>
+        <v>0.03094984</v>
       </c>
       <c r="D5">
-        <v>2.5387493000000001E-2</v>
+        <v>0.025387493</v>
       </c>
       <c r="E5">
-        <v>3.1560929000000001E-2</v>
+        <v>0.031560929</v>
       </c>
       <c r="F5">
-        <v>1.7335315E-2</v>
+        <v>0.017335315</v>
       </c>
       <c r="G5">
-        <v>1.7816953999999999E-2</v>
+        <v>0.017816954</v>
       </c>
       <c r="I5" s="3">
-        <f t="shared" si="0"/>
-        <v>2.8276968499999999E-2</v>
+        <f>AVERAGE(B5:C5)</f>
+        <v>0.0282769685</v>
       </c>
       <c r="J5" s="3">
-        <f t="shared" si="1"/>
-        <v>2.8474210999999999E-2</v>
+        <f>AVERAGE(D5:E5)</f>
+        <v>0.028474211</v>
       </c>
       <c r="K5" s="3">
-        <f t="shared" si="2"/>
-        <v>1.75761345E-2</v>
+        <f>AVERAGE(F5:G5)</f>
+        <v>0.0175761345</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -683,34 +700,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.200512E-3</v>
+        <v>0.003200512</v>
       </c>
       <c r="C6">
-        <v>9.6051230000000001E-3</v>
+        <v>0.009605123</v>
       </c>
       <c r="D6">
-        <v>6.6809189999999996E-3</v>
+        <v>0.006680919</v>
       </c>
       <c r="E6">
-        <v>1.0698620000000001E-2</v>
+        <v>0.01069862</v>
       </c>
       <c r="F6">
-        <v>3.301965E-3</v>
+        <v>0.003301965</v>
       </c>
       <c r="G6">
-        <v>8.4396100000000002E-3</v>
+        <v>0.00843961</v>
       </c>
       <c r="I6" s="3">
-        <f t="shared" si="0"/>
-        <v>6.4028174999999996E-3</v>
+        <f>AVERAGE(B6:C6)</f>
+        <v>0.0064028175</v>
       </c>
       <c r="J6" s="3">
-        <f t="shared" si="1"/>
-        <v>8.6897694999999997E-3</v>
+        <f>AVERAGE(D6:E6)</f>
+        <v>0.0086897695</v>
       </c>
       <c r="K6" s="3">
-        <f t="shared" si="2"/>
-        <v>5.8707875000000003E-3</v>
+        <f>AVERAGE(F6:G6)</f>
+        <v>0.0058707875</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -718,34 +735,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.2008321000000003E-2</v>
+        <v>0.052008321</v>
       </c>
       <c r="C7">
-        <v>3.6286019000000003E-2</v>
+        <v>0.036286019</v>
       </c>
       <c r="D7">
-        <v>6.5473008999999999E-2</v>
+        <v>0.065473009</v>
       </c>
       <c r="E7">
-        <v>3.9049963E-2</v>
+        <v>0.039049963</v>
       </c>
       <c r="F7">
-        <v>4.2925540999999998E-2</v>
+        <v>0.042925541</v>
       </c>
       <c r="G7">
-        <v>4.2198050000000001E-2</v>
+        <v>0.04219805</v>
       </c>
       <c r="I7" s="3">
-        <f t="shared" si="0"/>
-        <v>4.4147169999999999E-2</v>
+        <f>AVERAGE(B7:C7)</f>
+        <v>0.04414717</v>
       </c>
       <c r="J7" s="3">
-        <f t="shared" si="1"/>
-        <v>5.2261485999999996E-2</v>
+        <f>AVERAGE(D7:E7)</f>
+        <v>0.052261486</v>
       </c>
       <c r="K7" s="3">
-        <f t="shared" si="2"/>
-        <v>4.2561795499999999E-2</v>
+        <f>AVERAGE(F7:G7)</f>
+        <v>0.0425617955</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -753,34 +770,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.8402944000000001E-2</v>
+        <v>0.018402944</v>
       </c>
       <c r="C8">
-        <v>2.2411952999999998E-2</v>
+        <v>0.022411953</v>
       </c>
       <c r="D8">
-        <v>2.5387493000000001E-2</v>
+        <v>0.025387493</v>
       </c>
       <c r="E8">
-        <v>1.4443137E-2</v>
+        <v>0.014443137</v>
       </c>
       <c r="F8">
-        <v>9.9058940000000002E-3</v>
+        <v>0.009905894</v>
       </c>
       <c r="G8">
-        <v>2.3443360999999999E-2</v>
+        <v>0.023443361</v>
       </c>
       <c r="I8" s="3">
-        <f t="shared" si="0"/>
-        <v>2.0407448500000001E-2</v>
+        <f>AVERAGE(B8:C8)</f>
+        <v>0.0204074485</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" si="1"/>
-        <v>1.9915314999999999E-2</v>
+        <f>AVERAGE(D8:E8)</f>
+        <v>0.019915315</v>
       </c>
       <c r="K8" s="3">
-        <f t="shared" si="2"/>
-        <v>1.6674627500000001E-2</v>
+        <f>AVERAGE(F8:G8)</f>
+        <v>0.0166746275</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -788,34 +805,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.4402303999999999E-2</v>
+        <v>0.014402304</v>
       </c>
       <c r="C9">
-        <v>1.3874065999999999E-2</v>
+        <v>0.013874066</v>
       </c>
       <c r="D9">
-        <v>1.3361839E-2</v>
+        <v>0.013361839</v>
       </c>
       <c r="E9">
-        <v>9.0938270000000005E-3</v>
+        <v>0.009093827</v>
       </c>
       <c r="F9">
-        <v>1.0731385E-2</v>
+        <v>0.010731385</v>
       </c>
       <c r="G9">
-        <v>8.4396100000000002E-3</v>
+        <v>0.00843961</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" si="0"/>
-        <v>1.4138184999999999E-2</v>
+        <f>AVERAGE(B9:C9)</f>
+        <v>0.014138185</v>
       </c>
       <c r="J9" s="3">
-        <f t="shared" si="1"/>
-        <v>1.1227833E-2</v>
+        <f>AVERAGE(D9:E9)</f>
+        <v>0.011227833</v>
       </c>
       <c r="K9" s="3">
-        <f t="shared" si="2"/>
-        <v>9.5854974999999999E-3</v>
+        <f>AVERAGE(F9:G9)</f>
+        <v>0.0095854975</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -823,34 +840,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.2802048E-2</v>
+        <v>0.012802048</v>
       </c>
       <c r="C10">
-        <v>9.6051230000000001E-3</v>
+        <v>0.009605123</v>
       </c>
       <c r="D10">
-        <v>2.4051309E-2</v>
+        <v>0.024051309</v>
       </c>
       <c r="E10">
-        <v>1.2303412999999999E-2</v>
+        <v>0.012303413</v>
       </c>
       <c r="F10">
-        <v>1.2382367999999999E-2</v>
+        <v>0.012382368</v>
       </c>
       <c r="G10">
-        <v>1.8754689000000001E-2</v>
+        <v>0.018754689</v>
       </c>
       <c r="I10" s="3">
-        <f t="shared" si="0"/>
-        <v>1.12035855E-2</v>
+        <f>AVERAGE(B10:C10)</f>
+        <v>0.0112035855</v>
       </c>
       <c r="J10" s="3">
-        <f t="shared" si="1"/>
-        <v>1.8177361E-2</v>
+        <f>AVERAGE(D10:E10)</f>
+        <v>0.018177361</v>
       </c>
       <c r="K10" s="3">
-        <f t="shared" si="2"/>
-        <v>1.5568528500000001E-2</v>
+        <f>AVERAGE(F10:G10)</f>
+        <v>0.0155685285</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -858,34 +875,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.8804608999999998E-2</v>
+        <v>0.028804609</v>
       </c>
       <c r="C11">
-        <v>2.2411952999999998E-2</v>
+        <v>0.022411953</v>
       </c>
       <c r="D11">
-        <v>3.2068412999999997E-2</v>
+        <v>0.032068413</v>
       </c>
       <c r="E11">
-        <v>2.7281481E-2</v>
+        <v>0.027281481</v>
       </c>
       <c r="F11">
-        <v>2.9717681999999999E-2</v>
+        <v>0.029717682</v>
       </c>
       <c r="G11">
-        <v>2.7194299000000002E-2</v>
+        <v>0.027194299</v>
       </c>
       <c r="I11" s="3">
-        <f t="shared" si="0"/>
-        <v>2.5608280999999997E-2</v>
+        <f>AVERAGE(B11:C11)</f>
+        <v>0.025608281</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" si="1"/>
-        <v>2.9674947E-2</v>
+        <f>AVERAGE(D11:E11)</f>
+        <v>0.029674947</v>
       </c>
       <c r="K11" s="3">
-        <f t="shared" si="2"/>
-        <v>2.84559905E-2</v>
+        <f>AVERAGE(F11:G11)</f>
+        <v>0.0284559905</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -893,34 +910,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.0012799999999995E-3</v>
+        <v>0.00800128</v>
       </c>
       <c r="C12">
-        <v>4.2689429999999999E-3</v>
+        <v>0.004268943</v>
       </c>
       <c r="D12">
-        <v>1.0689471000000001E-2</v>
+        <v>0.010689471</v>
       </c>
       <c r="E12">
-        <v>3.7445170000000002E-3</v>
+        <v>0.003744517</v>
       </c>
       <c r="F12">
-        <v>8.2549119999999997E-3</v>
+        <v>0.008254912</v>
       </c>
       <c r="G12">
-        <v>7.5018749999999999E-3</v>
+        <v>0.007501875</v>
       </c>
       <c r="I12" s="3">
-        <f t="shared" si="0"/>
-        <v>6.1351115000000001E-3</v>
+        <f>AVERAGE(B12:C12)</f>
+        <v>0.0061351115</v>
       </c>
       <c r="J12" s="3">
-        <f t="shared" si="1"/>
-        <v>7.2169940000000009E-3</v>
+        <f>AVERAGE(D12:E12)</f>
+        <v>0.007216994</v>
       </c>
       <c r="K12" s="3">
-        <f t="shared" si="2"/>
-        <v>7.8783935000000006E-3</v>
+        <f>AVERAGE(F12:G12)</f>
+        <v>0.0078783935</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -928,31 +945,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.0006399999999998E-3</v>
+        <v>0.00400064</v>
       </c>
       <c r="C13">
-        <v>7.470651E-3</v>
+        <v>0.007470651</v>
       </c>
       <c r="E13">
-        <v>6.9541029999999997E-3</v>
+        <v>0.006954103</v>
       </c>
       <c r="F13">
-        <v>4.1274559999999998E-3</v>
+        <v>0.004127456</v>
       </c>
       <c r="G13">
-        <v>3.7509380000000001E-3</v>
+        <v>0.003750938</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" si="0"/>
-        <v>5.7356454999999999E-3</v>
+        <f>AVERAGE(B13:C13)</f>
+        <v>0.0057356455</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" si="1"/>
-        <v>6.9541029999999997E-3</v>
+        <f>AVERAGE(D13:E13)</f>
+        <v>0.006954103</v>
       </c>
       <c r="K13" s="3">
-        <f t="shared" si="2"/>
-        <v>3.9391970000000002E-3</v>
+        <f>AVERAGE(F13:G13)</f>
+        <v>0.003939197</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -960,28 +977,28 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>2.1344720000000001E-3</v>
+        <v>0.002134472</v>
       </c>
       <c r="E14">
-        <v>3.2095859999999999E-3</v>
+        <v>0.003209586</v>
       </c>
       <c r="F14">
-        <v>1.6509820000000001E-3</v>
+        <v>0.001650982</v>
       </c>
       <c r="G14">
-        <v>2.8132029999999998E-3</v>
+        <v>0.002813203</v>
       </c>
       <c r="I14" s="3">
-        <f t="shared" si="0"/>
-        <v>2.1344720000000001E-3</v>
+        <f>AVERAGE(B14:C14)</f>
+        <v>0.002134472</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" si="1"/>
-        <v>3.2095859999999999E-3</v>
+        <f>AVERAGE(D14:E14)</f>
+        <v>0.003209586</v>
       </c>
       <c r="K14" s="3">
-        <f t="shared" si="2"/>
-        <v>2.2320924999999999E-3</v>
+        <f>AVERAGE(F14:G14)</f>
+        <v>0.0022320925</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -989,34 +1006,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.8014080000000001E-3</v>
+        <v>0.008801408</v>
       </c>
       <c r="C15">
-        <v>1.4941302E-2</v>
+        <v>0.014941302</v>
       </c>
       <c r="D15">
-        <v>5.3447349999999998E-3</v>
+        <v>0.005344735</v>
       </c>
       <c r="E15">
-        <v>8.0239649999999992E-3</v>
+        <v>0.008023965</v>
       </c>
       <c r="F15">
-        <v>1.403335E-2</v>
+        <v>0.01403335</v>
       </c>
       <c r="G15">
-        <v>1.3128282E-2</v>
+        <v>0.013128282</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1871355E-2</v>
+        <f>AVERAGE(B15:C15)</f>
+        <v>0.011871355</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" si="1"/>
-        <v>6.6843499999999995E-3</v>
+        <f>AVERAGE(D15:E15)</f>
+        <v>0.00668435</v>
       </c>
       <c r="K15" s="3">
-        <f t="shared" si="2"/>
-        <v>1.3580815999999999E-2</v>
+        <f>AVERAGE(F15:G15)</f>
+        <v>0.013580816</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1024,31 +1041,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.4405505000000003E-2</v>
+        <v>0.034405505</v>
       </c>
       <c r="C16">
-        <v>3.5218782999999997E-2</v>
+        <v>0.035218783</v>
       </c>
       <c r="E16">
-        <v>5.8842410000000001E-3</v>
+        <v>0.005884241</v>
       </c>
       <c r="F16">
-        <v>2.8892191000000001E-2</v>
+        <v>0.028892191</v>
       </c>
       <c r="G16">
-        <v>3.0945236000000001E-2</v>
+        <v>0.030945236</v>
       </c>
       <c r="I16" s="3">
-        <f t="shared" si="0"/>
-        <v>3.4812144000000003E-2</v>
+        <f>AVERAGE(B16:C16)</f>
+        <v>0.034812144</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" si="1"/>
-        <v>5.8842410000000001E-3</v>
+        <f>AVERAGE(D16:E16)</f>
+        <v>0.005884241</v>
       </c>
       <c r="K16" s="3">
-        <f t="shared" si="2"/>
-        <v>2.9918713499999999E-2</v>
+        <f>AVERAGE(F16:G16)</f>
+        <v>0.0299187135</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1056,31 +1073,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.0012799999999999E-4</v>
+        <v>0.000800128</v>
       </c>
       <c r="C17">
-        <v>1.0672360000000001E-3</v>
+        <v>0.001067236</v>
       </c>
       <c r="E17">
-        <v>1.069862E-3</v>
+        <v>0.001069862</v>
       </c>
       <c r="F17">
-        <v>7.4294210000000003E-3</v>
+        <v>0.007429421</v>
       </c>
       <c r="G17">
-        <v>3.7509380000000001E-3</v>
+        <v>0.003750938</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="0"/>
-        <v>9.3368200000000002E-4</v>
+        <f>AVERAGE(B17:C17)</f>
+        <v>0.000933682</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" si="1"/>
-        <v>1.069862E-3</v>
+        <f>AVERAGE(D17:E17)</f>
+        <v>0.001069862</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" si="2"/>
-        <v>5.5901795000000004E-3</v>
+        <f>AVERAGE(F17:G17)</f>
+        <v>0.0055901795</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1088,34 +1105,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.1603457E-2</v>
+        <v>0.021603457</v>
       </c>
       <c r="C18">
-        <v>2.1344716999999999E-2</v>
+        <v>0.021344717</v>
       </c>
       <c r="D18">
-        <v>6.6809189999999996E-3</v>
+        <v>0.006680919</v>
       </c>
       <c r="E18">
-        <v>1.1233551E-2</v>
+        <v>0.011233551</v>
       </c>
       <c r="F18">
-        <v>2.8892191000000001E-2</v>
+        <v>0.028892191</v>
       </c>
       <c r="G18">
-        <v>9.3773439999999993E-3</v>
+        <v>0.009377344</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" si="0"/>
-        <v>2.1474086999999999E-2</v>
+        <f>AVERAGE(B18:C18)</f>
+        <v>0.021474087</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" si="1"/>
-        <v>8.9572349999999992E-3</v>
+        <f>AVERAGE(D18:E18)</f>
+        <v>0.008957235</v>
       </c>
       <c r="K18" s="3">
-        <f t="shared" si="2"/>
-        <v>1.91347675E-2</v>
+        <f>AVERAGE(F18:G18)</f>
+        <v>0.0191347675</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1123,16 +1140,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.12866058599999999</v>
+        <v>0.128660586</v>
       </c>
       <c r="C19">
-        <v>8.1109924999999999E-2</v>
+        <v>0.081109925</v>
       </c>
       <c r="D19">
-        <v>0.16755745599999999</v>
+        <v>0.167557456</v>
       </c>
       <c r="E19">
-        <v>7.1306301000000002E-2</v>
+        <v>0.071306301</v>
       </c>
       <c r="F19">
         <v>0.114247978</v>
@@ -1141,15 +1158,15 @@
         <v>0.129782446</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(B19:C19)</f>
         <v>0.1048852555</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D19:E19)</f>
         <v>0.1194318785</v>
       </c>
       <c r="K19" s="3">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(F19:G19)</f>
         <v>0.122015212</v>
       </c>
     </row>
@@ -1158,34 +1175,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.200512E-3</v>
+        <v>0.003200512</v>
       </c>
       <c r="C20">
-        <v>5.3361789999999999E-3</v>
+        <v>0.005336179</v>
       </c>
       <c r="D20">
-        <v>2.6723680000000001E-3</v>
+        <v>0.002672368</v>
       </c>
       <c r="E20">
-        <v>5.8842410000000001E-3</v>
+        <v>0.005884241</v>
       </c>
       <c r="F20">
-        <v>5.7784380000000003E-3</v>
+        <v>0.005778438</v>
       </c>
       <c r="G20">
-        <v>8.4396100000000002E-3</v>
+        <v>0.00843961</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" si="0"/>
-        <v>4.2683454999999995E-3</v>
+        <f>AVERAGE(B20:C20)</f>
+        <v>0.0042683455</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" si="1"/>
-        <v>4.2783044999999999E-3</v>
+        <f>AVERAGE(D20:E20)</f>
+        <v>0.0042783045</v>
       </c>
       <c r="K20" s="3">
-        <f t="shared" si="2"/>
-        <v>7.1090240000000002E-3</v>
+        <f>AVERAGE(F20:G20)</f>
+        <v>0.007109024</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1193,34 +1210,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.4010241999999995E-2</v>
+        <v>0.064010242</v>
       </c>
       <c r="C21">
-        <v>2.5613660999999999E-2</v>
+        <v>0.025613661</v>
       </c>
       <c r="D21">
-        <v>9.6205237999999998E-2</v>
+        <v>0.096205238</v>
       </c>
       <c r="E21">
-        <v>2.9956136000000001E-2</v>
+        <v>0.029956136</v>
       </c>
       <c r="F21">
-        <v>6.8515767000000005E-2</v>
+        <v>0.068515767</v>
       </c>
       <c r="G21">
-        <v>3.7509377000000003E-2</v>
+        <v>0.037509377</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="0"/>
-        <v>4.4811951499999995E-2</v>
+        <f>AVERAGE(B21:C21)</f>
+        <v>0.0448119515</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" si="1"/>
-        <v>6.3080686999999996E-2</v>
+        <f>AVERAGE(D21:E21)</f>
+        <v>0.063080687</v>
       </c>
       <c r="K21" s="3">
-        <f t="shared" si="2"/>
-        <v>5.3012572000000008E-2</v>
+        <f>AVERAGE(F21:G21)</f>
+        <v>0.053012572</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1228,34 +1245,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.0803328999999999E-2</v>
+        <v>0.020803329</v>
       </c>
       <c r="C22">
-        <v>2.0277481E-2</v>
+        <v>0.020277481</v>
       </c>
       <c r="D22">
-        <v>1.6034205999999999E-2</v>
+        <v>0.016034206</v>
       </c>
       <c r="E22">
-        <v>1.1768482E-2</v>
+        <v>0.011768482</v>
       </c>
       <c r="F22">
-        <v>1.8986296999999999E-2</v>
+        <v>0.018986297</v>
       </c>
       <c r="G22">
-        <v>6.5641409999999999E-3</v>
+        <v>0.006564141</v>
       </c>
       <c r="I22" s="3">
-        <f t="shared" si="0"/>
-        <v>2.0540404999999998E-2</v>
+        <f>AVERAGE(B22:C22)</f>
+        <v>0.020540405</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" si="1"/>
-        <v>1.3901344E-2</v>
+        <f>AVERAGE(D22:E22)</f>
+        <v>0.013901344</v>
       </c>
       <c r="K22" s="3">
-        <f t="shared" si="2"/>
-        <v>1.2775218999999999E-2</v>
+        <f>AVERAGE(F22:G22)</f>
+        <v>0.012775219</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1263,34 +1280,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.9203072000000002E-2</v>
+        <v>0.019203072</v>
       </c>
       <c r="C23">
-        <v>3.3084311999999998E-2</v>
+        <v>0.033084312</v>
       </c>
       <c r="D23">
-        <v>2.5387493000000001E-2</v>
+        <v>0.025387493</v>
       </c>
       <c r="E23">
-        <v>3.3700652999999997E-2</v>
+        <v>0.033700653</v>
       </c>
       <c r="F23">
-        <v>2.8892191000000001E-2</v>
+        <v>0.028892191</v>
       </c>
       <c r="G23">
-        <v>3.6571643000000001E-2</v>
+        <v>0.036571643</v>
       </c>
       <c r="I23" s="3">
-        <f t="shared" si="0"/>
-        <v>2.6143692E-2</v>
+        <f>AVERAGE(B23:C23)</f>
+        <v>0.026143692</v>
       </c>
       <c r="J23" s="3">
-        <f t="shared" si="1"/>
-        <v>2.9544072999999997E-2</v>
+        <f>AVERAGE(D23:E23)</f>
+        <v>0.029544073</v>
       </c>
       <c r="K23" s="3">
-        <f t="shared" si="2"/>
-        <v>3.2731916999999999E-2</v>
+        <f>AVERAGE(F23:G23)</f>
+        <v>0.032731917</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1298,34 +1315,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.6015362000000007E-2</v>
+        <v>0.096015362</v>
       </c>
       <c r="C24">
-        <v>8.0256137000000005E-2</v>
+        <v>0.080256137</v>
       </c>
       <c r="D24">
-        <v>9.0593266000000006E-2</v>
+        <v>0.090593266</v>
       </c>
       <c r="E24">
-        <v>8.7835669000000005E-2</v>
+        <v>0.087835669</v>
       </c>
       <c r="F24">
-        <v>9.1546970000000005E-2</v>
+        <v>0.09154697</v>
       </c>
       <c r="G24">
-        <v>8.5333832999999998E-2</v>
+        <v>0.085333833</v>
       </c>
       <c r="I24" s="3">
-        <f t="shared" si="0"/>
-        <v>8.8135749499999999E-2</v>
+        <f>AVERAGE(B24:C24)</f>
+        <v>0.0881357495</v>
       </c>
       <c r="J24" s="3">
-        <f t="shared" si="1"/>
-        <v>8.9214467500000005E-2</v>
+        <f>AVERAGE(D24:E24)</f>
+        <v>0.0892144675</v>
       </c>
       <c r="K24" s="3">
-        <f t="shared" si="2"/>
-        <v>8.8440401500000002E-2</v>
+        <f>AVERAGE(F24:G24)</f>
+        <v>0.0884404015</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1333,34 +1350,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.3213313999999997E-2</v>
+        <v>0.083213314</v>
       </c>
       <c r="C25">
-        <v>9.7972251999999996E-2</v>
+        <v>0.097972252</v>
       </c>
       <c r="D25">
         <v>0.108498129</v>
       </c>
       <c r="E25">
-        <v>0.17005456299999999</v>
+        <v>0.170054563</v>
       </c>
       <c r="F25">
-        <v>0.10079247199999999</v>
+        <v>0.100792472</v>
       </c>
       <c r="G25">
-        <v>9.1897973999999993E-2</v>
+        <v>0.091897974</v>
       </c>
       <c r="I25" s="3">
-        <f t="shared" si="0"/>
-        <v>9.0592782999999996E-2</v>
+        <f>AVERAGE(B25:C25)</f>
+        <v>0.090592783</v>
       </c>
       <c r="J25" s="3">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D25:E25)</f>
         <v>0.139276346</v>
       </c>
       <c r="K25" s="3">
-        <f t="shared" si="2"/>
-        <v>9.6345222999999994E-2</v>
+        <f>AVERAGE(F25:G25)</f>
+        <v>0.096345223</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1368,33 +1385,33 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>9.5215233999999996E-2</v>
+        <v>0.095215234</v>
       </c>
       <c r="C26">
         <v>0.165421558</v>
       </c>
       <c r="D26">
-        <v>0.10288615700000001</v>
+        <v>0.102886157</v>
       </c>
       <c r="E26">
         <v>0.214507329</v>
       </c>
       <c r="F26">
-        <v>0.11969621900000001</v>
+        <v>0.119696219</v>
       </c>
       <c r="G26">
         <v>0.135033758</v>
       </c>
       <c r="I26" s="3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(B26:C26)</f>
         <v>0.130318396</v>
       </c>
       <c r="J26" s="3">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D26:E26)</f>
         <v>0.158696743</v>
       </c>
       <c r="K26" s="3">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(F26:G26)</f>
         <v>0.1273649885</v>
       </c>
     </row>
@@ -1403,34 +1420,34 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>2.3203713000000001E-2</v>
+        <v>0.023203713</v>
       </c>
       <c r="C27">
-        <v>2.1344716999999999E-2</v>
+        <v>0.021344717</v>
       </c>
       <c r="D27">
-        <v>2.4051309E-2</v>
+        <v>0.024051309</v>
       </c>
       <c r="E27">
-        <v>2.1397240000000001E-2</v>
+        <v>0.02139724</v>
       </c>
       <c r="F27">
-        <v>1.403335E-2</v>
+        <v>0.01403335</v>
       </c>
       <c r="G27">
-        <v>3.1882971000000003E-2</v>
+        <v>0.031882971</v>
       </c>
       <c r="I27" s="3">
-        <f t="shared" si="0"/>
-        <v>2.2274215E-2</v>
+        <f>AVERAGE(B27:C27)</f>
+        <v>0.022274215</v>
       </c>
       <c r="J27" s="3">
-        <f t="shared" si="1"/>
-        <v>2.2724274500000002E-2</v>
+        <f>AVERAGE(D27:E27)</f>
+        <v>0.0227242745</v>
       </c>
       <c r="K27" s="3">
-        <f t="shared" si="2"/>
-        <v>2.2958160500000001E-2</v>
+        <f>AVERAGE(F27:G27)</f>
+        <v>0.0229581605</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1438,34 +1455,34 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>2.1603457E-2</v>
+        <v>0.021603457</v>
       </c>
       <c r="C28">
-        <v>2.3479189000000001E-2</v>
+        <v>0.023479189</v>
       </c>
       <c r="D28">
-        <v>2.8059860999999998E-2</v>
+        <v>0.028059861</v>
       </c>
       <c r="E28">
-        <v>2.3002033000000002E-2</v>
+        <v>0.023002033</v>
       </c>
       <c r="F28">
-        <v>2.6415716999999998E-2</v>
+        <v>0.026415717</v>
       </c>
       <c r="G28">
-        <v>2.5318830000000001E-2</v>
+        <v>0.02531883</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" si="0"/>
-        <v>2.2541323000000002E-2</v>
+        <f>AVERAGE(B28:C28)</f>
+        <v>0.022541323</v>
       </c>
       <c r="J28" s="3">
-        <f t="shared" si="1"/>
-        <v>2.5530946999999998E-2</v>
+        <f>AVERAGE(D28:E28)</f>
+        <v>0.025530947</v>
       </c>
       <c r="K28" s="3">
-        <f t="shared" si="2"/>
-        <v>2.5867273499999999E-2</v>
+        <f>AVERAGE(F28:G28)</f>
+        <v>0.0258672735</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1473,34 +1490,34 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>2.2403585E-2</v>
+        <v>0.022403585</v>
       </c>
       <c r="C29">
-        <v>1.1739594000000001E-2</v>
+        <v>0.011739594</v>
       </c>
       <c r="D29">
-        <v>3.2068412999999997E-2</v>
+        <v>0.032068413</v>
       </c>
       <c r="E29">
-        <v>9.6287579999999994E-3</v>
+        <v>0.009628758</v>
       </c>
       <c r="F29">
-        <v>1.8160806000000002E-2</v>
+        <v>0.018160806</v>
       </c>
       <c r="G29">
-        <v>1.4066017E-2</v>
+        <v>0.014066017</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" si="0"/>
-        <v>1.7071589500000001E-2</v>
+        <f>AVERAGE(B29:C29)</f>
+        <v>0.0170715895</v>
       </c>
       <c r="J29" s="3">
-        <f t="shared" si="1"/>
-        <v>2.0848585499999999E-2</v>
+        <f>AVERAGE(D29:E29)</f>
+        <v>0.0208485855</v>
       </c>
       <c r="K29" s="3">
-        <f t="shared" si="2"/>
-        <v>1.6113411500000001E-2</v>
+        <f>AVERAGE(F29:G29)</f>
+        <v>0.0161134115</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1508,34 +1525,34 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5.0408065000000002E-2</v>
+        <v>0.050408065</v>
       </c>
       <c r="C30">
-        <v>7.1504803000000006E-2</v>
+        <v>0.071504803</v>
       </c>
       <c r="D30">
-        <v>5.6119721999999997E-2</v>
+        <v>0.056119722</v>
       </c>
       <c r="E30">
-        <v>6.6331443000000004E-2</v>
+        <v>0.066331443</v>
       </c>
       <c r="F30">
-        <v>5.5307908000000003E-2</v>
+        <v>0.055307908</v>
       </c>
       <c r="G30">
-        <v>6.2828206999999997E-2</v>
+        <v>0.062828207</v>
       </c>
       <c r="I30" s="3">
-        <f t="shared" si="0"/>
-        <v>6.0956434000000004E-2</v>
+        <f>AVERAGE(B30:C30)</f>
+        <v>0.060956434</v>
       </c>
       <c r="J30" s="3">
-        <f t="shared" si="1"/>
-        <v>6.12255825E-2</v>
+        <f>AVERAGE(D30:E30)</f>
+        <v>0.0612255825</v>
       </c>
       <c r="K30" s="3">
-        <f t="shared" si="2"/>
-        <v>5.90680575E-2</v>
+        <f>AVERAGE(F30:G30)</f>
+        <v>0.0590680575</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1543,34 +1560,34 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6.0009602000000002E-2</v>
+        <v>0.060009602</v>
       </c>
       <c r="C31">
-        <v>6.8303094999999994E-2</v>
+        <v>0.068303095</v>
       </c>
       <c r="D31">
-        <v>3.4740779999999999E-2</v>
+        <v>0.03474078</v>
       </c>
       <c r="E31">
-        <v>7.0075960000000007E-2</v>
+        <v>0.07007596</v>
       </c>
       <c r="F31">
-        <v>5.7784382000000002E-2</v>
+        <v>0.057784382</v>
       </c>
       <c r="G31">
-        <v>6.0952737999999999E-2</v>
+        <v>0.060952738</v>
       </c>
       <c r="I31" s="3">
-        <f t="shared" si="0"/>
-        <v>6.4156348500000002E-2</v>
+        <f>AVERAGE(B31:C31)</f>
+        <v>0.0641563485</v>
       </c>
       <c r="J31" s="3">
-        <f t="shared" si="1"/>
-        <v>5.2408370000000003E-2</v>
+        <f>AVERAGE(D31:E31)</f>
+        <v>0.05240837</v>
       </c>
       <c r="K31" s="3">
-        <f t="shared" si="2"/>
-        <v>5.9368560000000001E-2</v>
+        <f>AVERAGE(F31:G31)</f>
+        <v>0.05936856</v>
       </c>
     </row>
   </sheetData>
